--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H2">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I2">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J2">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>770.3213533863246</v>
+        <v>890.7560872023845</v>
       </c>
       <c r="R2">
-        <v>770.3213533863246</v>
+        <v>8016.80478482146</v>
       </c>
       <c r="S2">
-        <v>0.04770272458430056</v>
+        <v>0.04884083238559997</v>
       </c>
       <c r="T2">
-        <v>0.04770272458430056</v>
+        <v>0.05356752715734526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H3">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I3">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J3">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>115.8045393885501</v>
+        <v>145.495283657336</v>
       </c>
       <c r="R3">
-        <v>115.8045393885501</v>
+        <v>1309.457552916024</v>
       </c>
       <c r="S3">
-        <v>0.007171282509279407</v>
+        <v>0.00797761684045469</v>
       </c>
       <c r="T3">
-        <v>0.007171282509279407</v>
+        <v>0.008749670836444366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H4">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I4">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J4">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>150.3322849176762</v>
+        <v>192.87632425693</v>
       </c>
       <c r="R4">
-        <v>150.3322849176762</v>
+        <v>1735.88691831237</v>
       </c>
       <c r="S4">
-        <v>0.00930943891407362</v>
+        <v>0.01057555526089043</v>
       </c>
       <c r="T4">
-        <v>0.00930943891407362</v>
+        <v>0.01159903130170197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H5">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I5">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J5">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>203.2100860299409</v>
+        <v>225.4486558167527</v>
       </c>
       <c r="R5">
-        <v>203.2100860299409</v>
+        <v>2029.037902350774</v>
       </c>
       <c r="S5">
-        <v>0.01258393620276136</v>
+        <v>0.01236152092419331</v>
       </c>
       <c r="T5">
-        <v>0.01258393620276136</v>
+        <v>0.01355783829777746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.3350772234692</v>
+        <v>15.90202066666667</v>
       </c>
       <c r="H6">
-        <v>14.3350772234692</v>
+        <v>47.706062</v>
       </c>
       <c r="I6">
-        <v>0.09736834885608589</v>
+        <v>0.1000095542059894</v>
       </c>
       <c r="J6">
-        <v>0.09736834885608589</v>
+        <v>0.10228350994604</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>332.6720778708422</v>
+        <v>369.3917273347947</v>
       </c>
       <c r="R6">
-        <v>332.6720778708422</v>
+        <v>2216.350364008768</v>
       </c>
       <c r="S6">
-        <v>0.02060096664567094</v>
+        <v>0.02025402879485105</v>
       </c>
       <c r="T6">
-        <v>0.02060096664567094</v>
+        <v>0.01480944235277095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H7">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I7">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J7">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>1194.679749025109</v>
+        <v>1368.740903427627</v>
       </c>
       <c r="R7">
-        <v>1194.679749025109</v>
+        <v>12318.66813084864</v>
       </c>
       <c r="S7">
-        <v>0.07398143486956572</v>
+        <v>0.07504910267139675</v>
       </c>
       <c r="T7">
-        <v>0.07398143486956572</v>
+        <v>0.08231216891933511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H8">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I8">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J8">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>179.5995105737354</v>
+        <v>223.568885869824</v>
       </c>
       <c r="R8">
-        <v>179.5995105737354</v>
+        <v>2012.119972828416</v>
       </c>
       <c r="S8">
-        <v>0.01112183370058734</v>
+        <v>0.01225845171117251</v>
       </c>
       <c r="T8">
-        <v>0.01112183370058734</v>
+        <v>0.01344479430163939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H9">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I9">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J9">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>233.1480694729615</v>
+        <v>296.37486412512</v>
       </c>
       <c r="R9">
-        <v>233.1480694729615</v>
+        <v>2667.37377712608</v>
       </c>
       <c r="S9">
-        <v>0.01443786816571908</v>
+        <v>0.01625045876195187</v>
       </c>
       <c r="T9">
-        <v>0.01443786816571908</v>
+        <v>0.01782313790595489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H10">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I10">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J10">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>315.1554523451829</v>
+        <v>346.425695285824</v>
       </c>
       <c r="R10">
-        <v>315.1554523451829</v>
+        <v>3117.831257572416</v>
       </c>
       <c r="S10">
-        <v>0.01951623653995129</v>
+        <v>0.01899478382534546</v>
       </c>
       <c r="T10">
-        <v>0.01951623653995129</v>
+        <v>0.02083305195085274</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.2320546928951</v>
+        <v>24.435136</v>
       </c>
       <c r="H11">
-        <v>22.2320546928951</v>
+        <v>73.305408</v>
       </c>
       <c r="I11">
-        <v>0.1510071012091498</v>
+        <v>0.1536752535761215</v>
       </c>
       <c r="J11">
-        <v>0.1510071012091498</v>
+        <v>0.1571694269853278</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N11">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O11">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P11">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q11">
-        <v>515.9360995917772</v>
+        <v>567.609443095552</v>
       </c>
       <c r="R11">
-        <v>515.9360995917772</v>
+        <v>3405.656658573312</v>
       </c>
       <c r="S11">
-        <v>0.03194972793332634</v>
+        <v>0.03112245660625488</v>
       </c>
       <c r="T11">
-        <v>0.03194972793332634</v>
+        <v>0.02275627390754563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H12">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I12">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J12">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N12">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O12">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P12">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q12">
-        <v>2564.916989449289</v>
+        <v>3085.119559742893</v>
       </c>
       <c r="R12">
-        <v>2564.916989449289</v>
+        <v>27766.07603768604</v>
       </c>
       <c r="S12">
-        <v>0.158834398386372</v>
+        <v>0.1691594472064532</v>
       </c>
       <c r="T12">
-        <v>0.158834398386372</v>
+        <v>0.1855302794721582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H13">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I13">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J13">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N13">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P13">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q13">
-        <v>385.5910643360787</v>
+        <v>503.9206039796639</v>
       </c>
       <c r="R13">
-        <v>385.5910643360787</v>
+        <v>4535.285435816976</v>
       </c>
       <c r="S13">
-        <v>0.02387801436807193</v>
+        <v>0.02763034921481161</v>
       </c>
       <c r="T13">
-        <v>0.02387801436807193</v>
+        <v>0.03030434596703839</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H14">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I14">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J14">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N14">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O14">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P14">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q14">
-        <v>500.5571115911948</v>
+        <v>668.0240855218199</v>
       </c>
       <c r="R14">
-        <v>500.5571115911948</v>
+        <v>6012.21676969638</v>
       </c>
       <c r="S14">
-        <v>0.03099737262634691</v>
+        <v>0.03662826766975763</v>
       </c>
       <c r="T14">
-        <v>0.03099737262634691</v>
+        <v>0.04017306068077469</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H15">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I15">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J15">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N15">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O15">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P15">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q15">
-        <v>676.622814354532</v>
+        <v>780.8378385181639</v>
       </c>
       <c r="R15">
-        <v>676.622814354532</v>
+        <v>7027.540546663476</v>
       </c>
       <c r="S15">
-        <v>0.04190037264152201</v>
+        <v>0.04281393137730526</v>
       </c>
       <c r="T15">
-        <v>0.04190037264152201</v>
+        <v>0.04695735759906301</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>47.7310968388851</v>
+        <v>55.076396</v>
       </c>
       <c r="H16">
-        <v>47.7310968388851</v>
+        <v>165.229188</v>
       </c>
       <c r="I16">
-        <v>0.3242046077493995</v>
+        <v>0.3463815024953772</v>
       </c>
       <c r="J16">
-        <v>0.3242046077493995</v>
+        <v>0.3542573120827729</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N16">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O16">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P16">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q16">
-        <v>1107.688707700139</v>
+        <v>1279.382380407872</v>
       </c>
       <c r="R16">
-        <v>1107.688707700139</v>
+        <v>7676.294282447232</v>
       </c>
       <c r="S16">
-        <v>0.06859444972708656</v>
+        <v>0.07014950702704947</v>
       </c>
       <c r="T16">
-        <v>0.06859444972708656</v>
+        <v>0.05129226836373862</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H17">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I17">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J17">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N17">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O17">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P17">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q17">
-        <v>2843.381850778067</v>
+        <v>2968.054372014519</v>
       </c>
       <c r="R17">
-        <v>2843.381850778067</v>
+        <v>26712.48934813067</v>
       </c>
       <c r="S17">
-        <v>0.1760785427009206</v>
+        <v>0.1627406741055165</v>
       </c>
       <c r="T17">
-        <v>0.1760785427009206</v>
+        <v>0.1784903134108377</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H18">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I18">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J18">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N18">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P18">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q18">
-        <v>427.4534570379245</v>
+        <v>484.799283407572</v>
       </c>
       <c r="R18">
-        <v>427.4534570379245</v>
+        <v>4363.193550668148</v>
       </c>
       <c r="S18">
-        <v>0.02647037427178928</v>
+        <v>0.02658191269389376</v>
       </c>
       <c r="T18">
-        <v>0.02647037427178928</v>
+        <v>0.02915444435677062</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H19">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I19">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J19">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N19">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O19">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P19">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q19">
-        <v>554.901001564922</v>
+        <v>642.675841000235</v>
       </c>
       <c r="R19">
-        <v>554.901001564922</v>
+        <v>5784.082569002116</v>
       </c>
       <c r="S19">
-        <v>0.03436265856170401</v>
+        <v>0.03523840418217122</v>
       </c>
       <c r="T19">
-        <v>0.03436265856170401</v>
+        <v>0.03864868964777324</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H20">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I20">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J20">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N20">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O20">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P20">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q20">
-        <v>750.0815964305855</v>
+        <v>751.2088642170304</v>
       </c>
       <c r="R20">
-        <v>750.0815964305855</v>
+        <v>6760.879777953273</v>
       </c>
       <c r="S20">
-        <v>0.04644936253290667</v>
+        <v>0.04118935222663803</v>
       </c>
       <c r="T20">
-        <v>0.04644936253290667</v>
+        <v>0.04517555570253592</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.9131098697101</v>
+        <v>52.98651633333333</v>
       </c>
       <c r="H21">
-        <v>52.9131098697101</v>
+        <v>158.959549</v>
       </c>
       <c r="I21">
-        <v>0.3594024685419515</v>
+        <v>0.3332380197777619</v>
       </c>
       <c r="J21">
-        <v>0.3594024685419515</v>
+        <v>0.3408149809380521</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N21">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O21">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P21">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q21">
-        <v>1227.946939702961</v>
+        <v>1230.836080778789</v>
       </c>
       <c r="R21">
-        <v>1227.946939702961</v>
+        <v>7385.016484672737</v>
       </c>
       <c r="S21">
-        <v>0.07604153047463084</v>
+        <v>0.06748767656954241</v>
       </c>
       <c r="T21">
-        <v>0.07604153047463084</v>
+        <v>0.04934597782013466</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H22">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I22">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J22">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N22">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O22">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P22">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q22">
-        <v>538.1144177391267</v>
+        <v>594.0389842250599</v>
       </c>
       <c r="R22">
-        <v>538.1144177391267</v>
+        <v>3564.23390535036</v>
       </c>
       <c r="S22">
-        <v>0.03332313683296959</v>
+        <v>0.03257160840760691</v>
       </c>
       <c r="T22">
-        <v>0.03332313683296959</v>
+        <v>0.02381587198948343</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H23">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I23">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J23">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N23">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P23">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q23">
-        <v>80.89622858132712</v>
+        <v>97.02978374786399</v>
       </c>
       <c r="R23">
-        <v>80.89622858132712</v>
+        <v>582.178702487184</v>
       </c>
       <c r="S23">
-        <v>0.005009559315679979</v>
+        <v>0.005320216692904517</v>
       </c>
       <c r="T23">
-        <v>0.005009559315679979</v>
+        <v>0.003890062723612246</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H24">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I24">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J24">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N24">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O24">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P24">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q24">
-        <v>105.0158737132886</v>
+        <v>128.62786725657</v>
       </c>
       <c r="R24">
-        <v>105.0158737132886</v>
+        <v>771.7672035394201</v>
       </c>
       <c r="S24">
-        <v>0.006503186337367898</v>
+        <v>0.00705276359606619</v>
       </c>
       <c r="T24">
-        <v>0.006503186337367898</v>
+        <v>0.005156875057381979</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H25">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I25">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J25">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N25">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O25">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P25">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q25">
-        <v>141.9541034946218</v>
+        <v>150.350126617614</v>
       </c>
       <c r="R25">
-        <v>141.9541034946218</v>
+        <v>902.100759705684</v>
       </c>
       <c r="S25">
-        <v>0.008790613778064662</v>
+        <v>0.008243811565012858</v>
       </c>
       <c r="T25">
-        <v>0.008790613778064662</v>
+        <v>0.006027751484692316</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.0138879695367</v>
+        <v>10.604946</v>
       </c>
       <c r="H26">
-        <v>10.0138879695367</v>
+        <v>21.209892</v>
       </c>
       <c r="I26">
-        <v>0.06801747364341333</v>
+        <v>0.06669566994474985</v>
       </c>
       <c r="J26">
-        <v>0.06801747364341333</v>
+        <v>0.04547477004780722</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N26">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O26">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P26">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q26">
-        <v>232.3908595998057</v>
+        <v>246.344750981472</v>
       </c>
       <c r="R26">
-        <v>232.3908595998057</v>
+        <v>985.379003925888</v>
       </c>
       <c r="S26">
-        <v>0.0143909773793312</v>
+        <v>0.01350726968315938</v>
       </c>
       <c r="T26">
-        <v>0.0143909773793312</v>
+        <v>0.006584208792637249</v>
       </c>
     </row>
   </sheetData>
